--- a/backend/common/primary_data/元朗區升学数据.xlsx
+++ b/backend/common/primary_data/元朗區升学数据.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="15880" firstSheet="34" activeTab="39"/>
+    <workbookView windowHeight="15840" firstSheet="34" activeTab="39"/>
   </bookViews>
   <sheets>
     <sheet name="錦田公立蒙養學校" sheetId="1" r:id="rId1"/>
@@ -8351,7 +8351,7 @@
   <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="18" customHeight="1" outlineLevelCol="5"/>

--- a/backend/common/primary_data/元朗區升学数据.xlsx
+++ b/backend/common/primary_data/元朗區升学数据.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="15840" firstSheet="34" activeTab="39"/>
+    <workbookView windowHeight="15820" firstSheet="26" activeTab="26"/>
   </bookViews>
   <sheets>
     <sheet name="錦田公立蒙養學校" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
     <sheet name="八鄉中心小學" sheetId="7" r:id="rId7"/>
     <sheet name="鐘聲學校" sheetId="8" r:id="rId8"/>
     <sheet name="中華基督教會元朗真光小學" sheetId="9" r:id="rId9"/>
-    <sheet name="徐澤林紀念小學" sheetId="10" r:id="rId10"/>
+    <sheet name="基督教宣道會徐澤林紀念小學" sheetId="10" r:id="rId10"/>
     <sheet name="惇裕學校" sheetId="11" r:id="rId11"/>
     <sheet name="元朗官立小學" sheetId="12" r:id="rId12"/>
     <sheet name="元朗朗屏邨惠州學校" sheetId="13" r:id="rId13"/>
@@ -33,13 +33,13 @@
     <sheet name="十八鄉鄉事委員會公益社小學" sheetId="24" r:id="rId24"/>
     <sheet name="順德聯誼總會伍冕端小學" sheetId="25" r:id="rId25"/>
     <sheet name="宣道會葉紹蔭紀念小學" sheetId="26" r:id="rId26"/>
-    <sheet name="英業小學" sheetId="27" r:id="rId27"/>
+    <sheet name="元朗公立中學校友會鄧英業小學" sheetId="27" r:id="rId27"/>
     <sheet name="天水圍天主教小學" sheetId="28" r:id="rId28"/>
     <sheet name="東華三院姚達之紀念小學" sheetId="29" r:id="rId29"/>
     <sheet name="東華三院李東海小學" sheetId="30" r:id="rId30"/>
     <sheet name="聖公會天水圍靈愛小學" sheetId="31" r:id="rId31"/>
     <sheet name="伊利沙伯中學舊生會小學" sheetId="32" r:id="rId32"/>
-    <sheet name="伊利沙伯中學舊生會小學(分校)" sheetId="52" r:id="rId33"/>
+    <sheet name="伊利沙伯中學舊生會小學分校" sheetId="52" r:id="rId33"/>
     <sheet name="樂善堂梁銶琚學校" sheetId="33" r:id="rId34"/>
     <sheet name="獅子會何德心小學" sheetId="34" r:id="rId35"/>
     <sheet name="基督教培恩小學" sheetId="35" r:id="rId36"/>
@@ -78,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="839" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="839" uniqueCount="200">
   <si>
     <t>是否可统计升中数据</t>
   </si>
@@ -111,6 +111,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
       <t>中</t>
     </r>
     <r>
@@ -713,7 +718,53 @@
     <t>保良局百周年李兆忠紀念中學</t>
   </si>
   <si>
-    <r>
+    <t>保良局何蔭棠中學</t>
+  </si>
+  <si>
+    <t>其他中學</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>天主教崇德英文</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>書</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>院</t>
+    </r>
+  </si>
+  <si>
+    <t>皇仁書院</t>
+  </si>
+  <si>
+    <t>中華基督教會青年會中學</t>
+  </si>
+  <si>
+    <t>華英中學</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
       <t>裘</t>
     </r>
     <r>
@@ -746,110 +797,32 @@
         <rFont val="Microsoft YaHei"/>
         <charset val="134"/>
       </rPr>
-      <t>(元朗)</t>
-    </r>
-  </si>
-  <si>
-    <t>保良局何蔭棠中學</t>
-  </si>
-  <si>
-    <t>其他中學</t>
-  </si>
-  <si>
+      <t>（屯</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>門</t>
+    </r>
     <r>
       <rPr>
         <sz val="10"/>
         <rFont val="Microsoft YaHei"/>
         <charset val="134"/>
       </rPr>
-      <t>天主教崇德英文</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体-简"/>
-        <charset val="134"/>
-      </rPr>
-      <t>書</t>
-    </r>
+      <t>）</t>
+    </r>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
         <rFont val="Microsoft YaHei"/>
         <charset val="134"/>
       </rPr>
-      <t>院</t>
-    </r>
-  </si>
-  <si>
-    <t>皇仁書院</t>
-  </si>
-  <si>
-    <t>中華基督教會青年會中學</t>
-  </si>
-  <si>
-    <t>華英中學</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t>裘</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体-简"/>
-        <charset val="134"/>
-      </rPr>
-      <t>錦</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t>秋中</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体-简"/>
-        <charset val="134"/>
-      </rPr>
-      <t>學</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（屯</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体-简"/>
-        <charset val="134"/>
-      </rPr>
-      <t>門</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t>天水</t>
     </r>
     <r>
@@ -1030,6 +1003,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
       <t>新</t>
     </r>
     <r>
@@ -3034,7 +3012,7 @@
   <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="18" customHeight="1" outlineLevelCol="4"/>
@@ -5654,8 +5632,8 @@
   <sheetPr codeName="英業小學"/>
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="18" customHeight="1" outlineLevelCol="4"/>
@@ -5745,7 +5723,7 @@
     </row>
     <row r="9" customHeight="1" spans="1:5">
       <c r="C9" s="6" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="D9">
         <v>3</v>
@@ -5777,7 +5755,7 @@
     </row>
     <row r="13" customHeight="1" spans="1:5">
       <c r="C13" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D13">
         <v>2</v>
@@ -5809,7 +5787,7 @@
     </row>
     <row r="17" customHeight="1" spans="3:4">
       <c r="C17" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D17">
         <v>48</v>
@@ -5864,7 +5842,7 @@
         <v>2025</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D2">
         <v>46</v>
@@ -5904,7 +5882,7 @@
     </row>
     <row r="7" customHeight="1" spans="1:5">
       <c r="C7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -5920,7 +5898,7 @@
     </row>
     <row r="9" customHeight="1" spans="1:5">
       <c r="C9" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -5944,7 +5922,7 @@
     </row>
     <row r="12" customHeight="1" spans="1:5">
       <c r="C12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -5960,7 +5938,7 @@
     </row>
     <row r="14" customHeight="1" spans="1:5">
       <c r="C14" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D14">
         <v>5</v>
@@ -6000,7 +5978,7 @@
     </row>
     <row r="19" customHeight="1" spans="3:4">
       <c r="C19" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D19">
         <v>2</v>
@@ -6008,7 +5986,7 @@
     </row>
     <row r="20" customHeight="1" spans="3:4">
       <c r="C20" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D20">
         <v>2</v>
@@ -6016,7 +5994,7 @@
     </row>
     <row r="21" customHeight="1" spans="3:4">
       <c r="C21" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D21">
         <v>1</v>
@@ -6032,7 +6010,7 @@
     </row>
     <row r="23" customHeight="1" spans="3:4">
       <c r="C23" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D23">
         <v>1</v>
@@ -6040,7 +6018,7 @@
     </row>
     <row r="24" customHeight="1" spans="3:4">
       <c r="C24" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D24">
         <v>1</v>
@@ -6080,7 +6058,7 @@
     </row>
     <row r="29" customHeight="1" spans="3:4">
       <c r="C29" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D29">
         <v>1</v>
@@ -6143,7 +6121,7 @@
         <v>2025</v>
       </c>
       <c r="E2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -6246,7 +6224,7 @@
         <v>2</v>
       </c>
       <c r="E2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="3" ht="15.2" spans="1:5">
@@ -6347,7 +6325,7 @@
     </row>
     <row r="15" ht="15.2" spans="1:5">
       <c r="C15" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -6355,7 +6333,7 @@
     </row>
     <row r="16" ht="15.2" spans="1:5">
       <c r="C16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -6427,7 +6405,7 @@
     </row>
     <row r="25" ht="15.2" spans="3:4">
       <c r="C25" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D25">
         <v>1</v>
@@ -6491,7 +6469,7 @@
     </row>
     <row r="33" ht="15.2" spans="3:4">
       <c r="C33" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D33">
         <v>1</v>
@@ -6635,7 +6613,7 @@
     <row r="3" ht="15.2" spans="1:5">
       <c r="B3" s="7"/>
       <c r="C3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -6653,7 +6631,7 @@
     <row r="5" ht="15.2" spans="1:5">
       <c r="B5" s="7"/>
       <c r="C5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D5">
         <v>2</v>
@@ -6680,7 +6658,7 @@
     <row r="8" ht="15.2" spans="1:5">
       <c r="B8" s="7"/>
       <c r="C8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -6689,7 +6667,7 @@
     <row r="9" ht="15.2" spans="1:5">
       <c r="B9" s="7"/>
       <c r="C9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -6713,46 +6691,46 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" ht="15.2" spans="1:5">
       <c r="B12" s="7"/>
       <c r="C12" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D12">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" ht="15.2" spans="1:5">
       <c r="B13" s="7"/>
       <c r="C13" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D13">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" ht="16" spans="1:5">
       <c r="B14" s="7"/>
       <c r="C14" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D14">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" ht="15.2" spans="1:5">
       <c r="B15" s="7"/>
       <c r="C15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D15">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" ht="15.2" spans="1:5">
       <c r="B16" s="7"/>
       <c r="C16" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -6797,7 +6775,7 @@
     <row r="21" ht="15.2" spans="2:4">
       <c r="B21" s="7"/>
       <c r="C21" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D21">
         <v>1</v>
@@ -6833,13 +6811,13 @@
     <row r="25" ht="15.2" spans="2:4">
       <c r="B25" s="7"/>
       <c r="C25" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D25">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:4">
+    <row r="26" ht="15.2" spans="2:4">
       <c r="B26" s="7"/>
       <c r="C26" t="s">
         <v>74</v>
@@ -6851,13 +6829,13 @@
     <row r="27" ht="16" spans="2:4">
       <c r="B27" s="7"/>
       <c r="C27" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D27">
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="2:4">
+    <row r="28" ht="15.2" spans="2:4">
       <c r="B28" s="7"/>
       <c r="C28" t="s">
         <v>89</v>
@@ -6944,7 +6922,7 @@
     </row>
     <row r="3" ht="15.2" spans="1:5">
       <c r="C3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D3">
         <v>4</v>
@@ -7048,7 +7026,7 @@
     </row>
     <row r="16" ht="16" spans="1:5">
       <c r="C16" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -7088,7 +7066,7 @@
     </row>
     <row r="21" ht="16" spans="3:4">
       <c r="C21" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D21">
         <v>2</v>
@@ -7096,7 +7074,7 @@
     </row>
     <row r="22" ht="16" spans="3:4">
       <c r="C22" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -7104,7 +7082,7 @@
     </row>
     <row r="23" ht="16" spans="3:4">
       <c r="C23" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D23">
         <v>1</v>
@@ -7112,7 +7090,7 @@
     </row>
     <row r="24" ht="16" spans="3:4">
       <c r="C24" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D24">
         <v>1</v>
@@ -7120,7 +7098,7 @@
     </row>
     <row r="25" ht="15.2" spans="3:4">
       <c r="C25" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D25">
         <v>1</v>
@@ -7207,7 +7185,7 @@
     </row>
     <row r="5" ht="16" spans="1:5">
       <c r="C5" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -7570,7 +7548,7 @@
     </row>
     <row r="9" ht="15.2" spans="1:5">
       <c r="C9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -7626,7 +7604,7 @@
     </row>
     <row r="16" ht="16" spans="1:5">
       <c r="C16" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D16">
         <v>2</v>
@@ -7650,7 +7628,7 @@
     </row>
     <row r="19" ht="15.2" spans="3:4">
       <c r="C19" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -7658,7 +7636,7 @@
     </row>
     <row r="20" ht="15.2" spans="3:4">
       <c r="C20" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D20">
         <v>1</v>
@@ -7666,7 +7644,7 @@
     </row>
     <row r="21" ht="15.2" spans="3:4">
       <c r="C21" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D21">
         <v>1</v>
@@ -7674,7 +7652,7 @@
     </row>
     <row r="22" ht="15.2" spans="3:4">
       <c r="C22" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -7722,7 +7700,7 @@
     </row>
     <row r="28" ht="15.2" spans="3:4">
       <c r="C28" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D28">
         <v>11</v>
@@ -7730,7 +7708,7 @@
     </row>
     <row r="29" ht="15.2" spans="3:4">
       <c r="C29" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D29">
         <v>2</v>
@@ -7746,7 +7724,7 @@
     </row>
     <row r="31" ht="15.2" spans="3:4">
       <c r="C31" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D31">
         <v>2</v>
@@ -7754,7 +7732,7 @@
     </row>
     <row r="32" ht="15.2" spans="3:4">
       <c r="C32" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D32">
         <v>1</v>
@@ -7762,7 +7740,7 @@
     </row>
     <row r="33" ht="15.2" spans="3:4">
       <c r="C33" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D33">
         <v>1</v>
@@ -7921,7 +7899,7 @@
     </row>
     <row r="15" ht="15.2" spans="1:5">
       <c r="C15" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -7929,7 +7907,7 @@
     </row>
     <row r="16" ht="15.2" spans="1:5">
       <c r="C16" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D16">
         <v>4</v>
@@ -8017,7 +7995,7 @@
     </row>
     <row r="27" ht="15.2" spans="3:4">
       <c r="C27" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D27">
         <v>1</v>
@@ -8081,15 +8059,15 @@
     </row>
     <row r="35" ht="16" spans="3:4">
       <c r="C35" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" ht="15.2" spans="3:4">
+      <c r="C36" t="s">
         <v>192</v>
-      </c>
-      <c r="D35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="3:4">
-      <c r="C36" t="s">
-        <v>193</v>
       </c>
       <c r="D36">
         <v>1</v>
@@ -8097,7 +8075,7 @@
     </row>
     <row r="37" ht="15.2" spans="3:4">
       <c r="C37" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D37">
         <v>1</v>
@@ -8350,7 +8328,7 @@
   <sheetPr codeName="潮陽百欣小學"/>
   <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
@@ -8489,7 +8467,7 @@
     </row>
     <row r="15" ht="15.2" spans="1:6">
       <c r="C15" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D15" s="4">
         <v>1</v>
@@ -8497,7 +8475,7 @@
     </row>
     <row r="16" ht="15.2" spans="1:6">
       <c r="C16" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D16" s="4">
         <v>4</v>
@@ -8587,7 +8565,7 @@
     </row>
     <row r="27" ht="15.2" spans="3:6">
       <c r="C27" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D27">
         <v>1</v>
@@ -8651,7 +8629,7 @@
     </row>
     <row r="35" ht="15.2" spans="3:4">
       <c r="C35" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D35">
         <v>1</v>
@@ -8659,7 +8637,7 @@
     </row>
     <row r="36" ht="15.2" spans="3:4">
       <c r="C36" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D36">
         <v>1</v>
@@ -8667,7 +8645,7 @@
     </row>
     <row r="37" ht="15.2" spans="3:4">
       <c r="C37" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D37">
         <v>1</v>
@@ -8970,7 +8948,7 @@
       </c>
       <c r="D2" s="4"/>
       <c r="E2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="3" ht="15.2" spans="1:6">
@@ -9240,7 +9218,7 @@
     </row>
     <row r="5" ht="15.2" spans="1:6">
       <c r="C5" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D5" s="3">
         <v>1</v>
@@ -9264,7 +9242,7 @@
     </row>
     <row r="8" ht="15.2" spans="1:6">
       <c r="C8" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D8" s="2">
         <v>1</v>
@@ -9312,7 +9290,7 @@
     </row>
     <row r="14" ht="15.2" spans="1:6">
       <c r="C14" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D14" s="2">
         <v>37</v>
@@ -9406,7 +9384,7 @@
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="3" ht="15.2" spans="1:6">
@@ -9544,7 +9522,7 @@
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="3" ht="15.2" spans="1:6">
@@ -9682,7 +9660,7 @@
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="3" ht="15.2" spans="1:6">
@@ -9820,7 +9798,7 @@
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="3" ht="15.2" spans="1:6">
@@ -10003,7 +9981,7 @@
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="3" ht="15.2" spans="1:6">
@@ -10141,7 +10119,7 @@
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="3" ht="15.2" spans="1:6">
@@ -10279,7 +10257,7 @@
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="3" ht="15.2" spans="1:6">

--- a/backend/common/primary_data/元朗區升学数据.xlsx
+++ b/backend/common/primary_data/元朗區升学数据.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="15820" firstSheet="26" activeTab="26"/>
+    <workbookView windowHeight="15740" firstSheet="34" activeTab="39"/>
   </bookViews>
   <sheets>
     <sheet name="錦田公立蒙養學校" sheetId="1" r:id="rId1"/>
@@ -625,7 +625,24 @@
     <t>赛马会万钧毅智书院</t>
   </si>
   <si>
-    <t>东华三院邝锡坤伉俪中学</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">东华三院邝锡坤伉俪中学
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
   </si>
   <si>
     <t>佛教茂峰法师纪念中学</t>
@@ -2276,7 +2293,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2297,6 +2314,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2862,138 +2882,138 @@
       <c r="B2">
         <v>2025</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="8">
+      <c r="D2" s="9">
         <v>3</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:5">
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:5">
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="10">
         <v>2</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:5">
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="10">
         <v>3</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:5">
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:5">
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:5">
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:5">
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:5">
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="10">
         <v>2</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:5">
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:5">
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D12" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:5">
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D13" s="10">
         <v>2</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:5">
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="9">
+      <c r="D14" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:5">
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="9">
+      <c r="D15" s="10">
         <v>2</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:5">
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="9">
+      <c r="D16" s="10">
         <v>3</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="3:4">
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D17" s="9">
+      <c r="D17" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="3:4">
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D18" s="9">
+      <c r="D18" s="10">
         <v>1</v>
       </c>
     </row>
@@ -4900,8 +4920,8 @@
   <sheetPr codeName="十八鄉鄉事委員會公益社小學"/>
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="18" customHeight="1" outlineLevelCol="4"/>
@@ -5174,7 +5194,7 @@
       </c>
     </row>
     <row r="32" customHeight="1" spans="3:4">
-      <c r="C32" t="s">
+      <c r="C32" s="7" t="s">
         <v>123</v>
       </c>
       <c r="D32">
@@ -5632,7 +5652,7 @@
   <sheetPr codeName="英業小學"/>
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
@@ -6600,7 +6620,7 @@
       <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B2" s="8">
         <v>2025</v>
       </c>
       <c r="C2" t="s">
@@ -6611,7 +6631,7 @@
       </c>
     </row>
     <row r="3" ht="15.2" spans="1:5">
-      <c r="B3" s="7"/>
+      <c r="B3" s="8"/>
       <c r="C3" t="s">
         <v>159</v>
       </c>
@@ -6620,7 +6640,7 @@
       </c>
     </row>
     <row r="4" ht="15.2" spans="1:5">
-      <c r="B4" s="7"/>
+      <c r="B4" s="8"/>
       <c r="C4" t="s">
         <v>95</v>
       </c>
@@ -6629,7 +6649,7 @@
       </c>
     </row>
     <row r="5" ht="15.2" spans="1:5">
-      <c r="B5" s="7"/>
+      <c r="B5" s="8"/>
       <c r="C5" t="s">
         <v>160</v>
       </c>
@@ -6638,7 +6658,7 @@
       </c>
     </row>
     <row r="6" ht="15.2" spans="1:5">
-      <c r="B6" s="7"/>
+      <c r="B6" s="8"/>
       <c r="C6" t="s">
         <v>106</v>
       </c>
@@ -6647,7 +6667,7 @@
       </c>
     </row>
     <row r="7" ht="15.2" spans="1:5">
-      <c r="B7" s="7"/>
+      <c r="B7" s="8"/>
       <c r="C7" s="6" t="s">
         <v>99</v>
       </c>
@@ -6656,7 +6676,7 @@
       </c>
     </row>
     <row r="8" ht="15.2" spans="1:5">
-      <c r="B8" s="7"/>
+      <c r="B8" s="8"/>
       <c r="C8" t="s">
         <v>161</v>
       </c>
@@ -6665,7 +6685,7 @@
       </c>
     </row>
     <row r="9" ht="15.2" spans="1:5">
-      <c r="B9" s="7"/>
+      <c r="B9" s="8"/>
       <c r="C9" t="s">
         <v>162</v>
       </c>
@@ -6674,7 +6694,7 @@
       </c>
     </row>
     <row r="10" ht="15.2" spans="1:5">
-      <c r="B10" s="7"/>
+      <c r="B10" s="8"/>
       <c r="C10" t="s">
         <v>121</v>
       </c>
@@ -6683,7 +6703,7 @@
       </c>
     </row>
     <row r="11" ht="15.2" spans="1:5">
-      <c r="B11" s="7"/>
+      <c r="B11" s="8"/>
       <c r="C11" t="s">
         <v>124</v>
       </c>
@@ -6692,7 +6712,7 @@
       </c>
     </row>
     <row r="12" ht="15.2" spans="1:5">
-      <c r="B12" s="7"/>
+      <c r="B12" s="8"/>
       <c r="C12" t="s">
         <v>163</v>
       </c>
@@ -6701,7 +6721,7 @@
       </c>
     </row>
     <row r="13" ht="15.2" spans="1:5">
-      <c r="B13" s="7"/>
+      <c r="B13" s="8"/>
       <c r="C13" s="5" t="s">
         <v>164</v>
       </c>
@@ -6710,7 +6730,7 @@
       </c>
     </row>
     <row r="14" ht="16" spans="1:5">
-      <c r="B14" s="7"/>
+      <c r="B14" s="8"/>
       <c r="C14" s="6" t="s">
         <v>165</v>
       </c>
@@ -6719,7 +6739,7 @@
       </c>
     </row>
     <row r="15" ht="15.2" spans="1:5">
-      <c r="B15" s="7"/>
+      <c r="B15" s="8"/>
       <c r="C15" t="s">
         <v>166</v>
       </c>
@@ -6728,7 +6748,7 @@
       </c>
     </row>
     <row r="16" ht="15.2" spans="1:5">
-      <c r="B16" s="7"/>
+      <c r="B16" s="8"/>
       <c r="C16" s="5" t="s">
         <v>167</v>
       </c>
@@ -6737,7 +6757,7 @@
       </c>
     </row>
     <row r="17" ht="15.2" spans="2:4">
-      <c r="B17" s="7"/>
+      <c r="B17" s="8"/>
       <c r="C17" t="s">
         <v>127</v>
       </c>
@@ -6746,7 +6766,7 @@
       </c>
     </row>
     <row r="18" ht="15.2" spans="2:4">
-      <c r="B18" s="7"/>
+      <c r="B18" s="8"/>
       <c r="C18" t="s">
         <v>129</v>
       </c>
@@ -6755,7 +6775,7 @@
       </c>
     </row>
     <row r="19" ht="15.2" spans="2:4">
-      <c r="B19" s="7"/>
+      <c r="B19" s="8"/>
       <c r="C19" t="s">
         <v>41</v>
       </c>
@@ -6764,7 +6784,7 @@
       </c>
     </row>
     <row r="20" ht="15.2" spans="2:4">
-      <c r="B20" s="7"/>
+      <c r="B20" s="8"/>
       <c r="C20" t="s">
         <v>48</v>
       </c>
@@ -6773,7 +6793,7 @@
       </c>
     </row>
     <row r="21" ht="15.2" spans="2:4">
-      <c r="B21" s="7"/>
+      <c r="B21" s="8"/>
       <c r="C21" s="5" t="s">
         <v>168</v>
       </c>
@@ -6782,7 +6802,7 @@
       </c>
     </row>
     <row r="22" ht="15.2" spans="2:4">
-      <c r="B22" s="7"/>
+      <c r="B22" s="8"/>
       <c r="C22" s="6" t="s">
         <v>49</v>
       </c>
@@ -6791,7 +6811,7 @@
       </c>
     </row>
     <row r="23" ht="15.2" spans="2:4">
-      <c r="B23" s="7"/>
+      <c r="B23" s="8"/>
       <c r="C23" s="6" t="s">
         <v>13</v>
       </c>
@@ -6800,7 +6820,7 @@
       </c>
     </row>
     <row r="24" ht="15.2" spans="2:4">
-      <c r="B24" s="7"/>
+      <c r="B24" s="8"/>
       <c r="C24" s="6" t="s">
         <v>9</v>
       </c>
@@ -6809,7 +6829,7 @@
       </c>
     </row>
     <row r="25" ht="15.2" spans="2:4">
-      <c r="B25" s="7"/>
+      <c r="B25" s="8"/>
       <c r="C25" t="s">
         <v>169</v>
       </c>
@@ -6818,7 +6838,7 @@
       </c>
     </row>
     <row r="26" ht="15.2" spans="2:4">
-      <c r="B26" s="7"/>
+      <c r="B26" s="8"/>
       <c r="C26" t="s">
         <v>74</v>
       </c>
@@ -6827,7 +6847,7 @@
       </c>
     </row>
     <row r="27" ht="16" spans="2:4">
-      <c r="B27" s="7"/>
+      <c r="B27" s="8"/>
       <c r="C27" s="6" t="s">
         <v>148</v>
       </c>
@@ -6836,7 +6856,7 @@
       </c>
     </row>
     <row r="28" ht="15.2" spans="2:4">
-      <c r="B28" s="7"/>
+      <c r="B28" s="8"/>
       <c r="C28" t="s">
         <v>89</v>
       </c>
@@ -6845,7 +6865,7 @@
       </c>
     </row>
     <row r="29" ht="15.2" spans="2:4">
-      <c r="B29" s="7"/>
+      <c r="B29" s="8"/>
       <c r="C29" t="s">
         <v>90</v>
       </c>
@@ -6854,7 +6874,7 @@
       </c>
     </row>
     <row r="30" ht="15.2" spans="2:4">
-      <c r="B30" s="7"/>
+      <c r="B30" s="8"/>
       <c r="C30" t="s">
         <v>77</v>
       </c>
@@ -7761,7 +7781,7 @@
   <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="18" customHeight="1" outlineLevelCol="4"/>
@@ -8073,8 +8093,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" ht="15.2" spans="3:4">
-      <c r="C37" s="5" t="s">
+    <row r="37" ht="16" spans="3:4">
+      <c r="C37" s="7" t="s">
         <v>193</v>
       </c>
       <c r="D37">
@@ -8328,8 +8348,8 @@
   <sheetPr codeName="潮陽百欣小學"/>
   <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="18" customHeight="1" outlineLevelCol="5"/>
@@ -8643,7 +8663,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" ht="15.2" spans="3:4">
+    <row r="37" spans="3:4">
       <c r="C37" s="5" t="s">
         <v>193</v>
       </c>
